--- a/testdata/testData.xlsx
+++ b/testdata/testData.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="4665"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="120">
   <si>
     <t>PDL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,26 +238,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>assertResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assert_result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>assertResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assert_result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已处理，等待成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -570,6 +554,50 @@
     <t>loanNo=
 action= com.hansy.forsaler.action.ForSalerAction
 method=queryLoanTypeByLoanNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://221.236.20.217:8093/pcl/services/loanCenter/account/queryPaymentHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert_settledAcount</t>
+  </si>
+  <si>
+    <t>assert_settledAcount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_settledAcount</t>
+  </si>
+  <si>
+    <t>test_orRemove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert_orRemove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_settledAcount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+    "params": {
+        "loanNo": "000002017090601542",
+        "isPage":1,
+        "pageSize":"10",
+        "pageNo":"1"
+    }
+}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ "code":"0000"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,7 +656,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -643,6 +671,15 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -925,10 +962,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="32" style="6" customWidth="1"/>
+    <col min="5" max="5" width="49.375" customWidth="1"/>
+    <col min="6" max="6" width="60.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D46" s="7"/>
+      <c r="E46" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -942,7 +1070,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>45</v>
@@ -957,7 +1085,7 @@
         <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -969,7 +1097,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
@@ -977,19 +1105,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
@@ -1006,19 +1134,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
@@ -1035,19 +1163,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
@@ -1064,19 +1192,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G5" t="s">
         <v>0</v>
@@ -1093,19 +1221,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s">
         <v>0</v>
@@ -1125,19 +1253,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G7" t="s">
         <v>0</v>
@@ -1157,25 +1285,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
         <v>7</v>
@@ -1186,19 +1314,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
         <v>0</v>
@@ -1218,19 +1346,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
         <v>0</v>
@@ -1250,19 +1378,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
         <v>0</v>
@@ -1282,19 +1410,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G12" t="s">
         <v>0</v>
@@ -1314,19 +1442,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G13" t="s">
         <v>0</v>
@@ -1340,19 +1468,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -1366,19 +1494,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
@@ -1392,19 +1520,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
@@ -1424,19 +1552,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G17" t="s">
         <v>18</v>
@@ -1456,19 +1584,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G18" t="s">
         <v>18</v>
@@ -1488,19 +1616,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G19" t="s">
         <v>18</v>
@@ -1520,19 +1648,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
@@ -1552,19 +1680,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G21" t="s">
         <v>21</v>
@@ -1584,19 +1712,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G22" t="s">
         <v>21</v>
@@ -1610,19 +1738,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G23" t="s">
         <v>40</v>
@@ -1642,19 +1770,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G24" t="s">
         <v>40</v>
@@ -1674,19 +1802,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G25" t="s">
         <v>40</v>
@@ -1706,19 +1834,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G26" t="s">
         <v>40</v>
@@ -1738,19 +1866,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G27" t="s">
         <v>40</v>
@@ -1770,19 +1898,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G28" t="s">
         <v>40</v>
@@ -1802,25 +1930,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="F29" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G29" t="s">
         <v>40</v>
       </c>
       <c r="H29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I29" t="s">
         <v>2</v>
@@ -1834,19 +1962,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G30" t="s">
         <v>40</v>
@@ -1863,19 +1991,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G31" t="s">
         <v>40</v>
@@ -1895,25 +2023,25 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
       </c>
       <c r="H32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I32" t="s">
         <v>9</v>
@@ -1927,19 +2055,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G33" t="s">
         <v>40</v>
@@ -1959,19 +2087,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G34" t="s">
         <v>39</v>
@@ -1991,19 +2119,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
@@ -2023,19 +2151,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G36" t="s">
         <v>39</v>
@@ -2055,19 +2183,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -2087,19 +2215,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G38" t="s">
         <v>41</v>
@@ -2119,19 +2247,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G39" t="s">
         <v>41</v>
@@ -2151,19 +2279,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G40" t="s">
         <v>41</v>
@@ -2183,19 +2311,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G41" t="s">
         <v>41</v>
@@ -2215,19 +2343,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G42" t="s">
         <v>41</v>
@@ -2247,19 +2375,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G43" t="s">
         <v>41</v>
@@ -2279,19 +2407,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G44" t="s">
         <v>41</v>
@@ -2311,19 +2439,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H45" t="s">
         <v>50</v>
@@ -2334,19 +2462,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H46" t="s">
         <v>52</v>
@@ -2357,19 +2485,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H47" t="s">
         <v>53</v>
@@ -2383,24 +2511,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D46:E46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D46" s="1"/>
-      <c r="E46" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/testdata/testData.xlsx
+++ b/testdata/testData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="124">
   <si>
     <t>PDL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -515,12 +515,6 @@
   </si>
   <si>
     <t>loanNo=100002018012900132
-action= com.hansy.forsaler.action.ForSalerAction
-method=queryLoanTypeByLoanNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loanNo=100002018030401001
 action= com.hansy.forsaler.action.ForSalerAction
 method=queryLoanTypeByLoanNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -598,6 +592,38 @@
   <si>
     <t xml:space="preserve"> 
  "code":"0000"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loanNo=100002018030401001
+action= com.hansy.forsaler.action.ForSalerAction
+method=queryLoanTypeByLoanNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期接口查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+    "params": {
+        "loanNo": "",
+        "isPage":1,
+        "pageSize":"10",
+        "pageNo":"1"
+    }
+}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ "code":"0001"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,7 +682,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,6 +706,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -962,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -977,7 +1006,7 @@
     <col min="6" max="6" width="60.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -996,43 +1025,85 @@
       <c r="F1" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="G1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
         <v>115</v>
       </c>
-      <c r="C2" t="s">
-        <v>116</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="5"/>
@@ -1045,9 +1116,11 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1055,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1105,19 +1178,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
@@ -1134,19 +1207,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>61</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
@@ -1163,10 +1236,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>103</v>
@@ -1175,7 +1248,7 @@
         <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
@@ -1192,10 +1265,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>102</v>
@@ -1204,7 +1277,7 @@
         <v>36</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G5" t="s">
         <v>0</v>
@@ -1221,10 +1294,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>101</v>
@@ -1233,7 +1306,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G6" t="s">
         <v>0</v>
@@ -1253,10 +1326,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>100</v>
@@ -1265,7 +1338,7 @@
         <v>27</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
         <v>0</v>
@@ -1285,10 +1358,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>99</v>
@@ -1297,7 +1370,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
         <v>0</v>
@@ -1314,10 +1387,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>98</v>
@@ -1326,7 +1399,7 @@
         <v>27</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
         <v>0</v>
@@ -1346,10 +1419,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>97</v>
@@ -1358,7 +1431,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
         <v>0</v>
@@ -1378,10 +1451,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>96</v>
@@ -1390,7 +1463,7 @@
         <v>27</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
         <v>0</v>
@@ -1410,10 +1483,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>95</v>
@@ -1422,7 +1495,7 @@
         <v>27</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G12" t="s">
         <v>0</v>
@@ -1442,10 +1515,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>94</v>
@@ -1454,7 +1527,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G13" t="s">
         <v>0</v>
@@ -1468,10 +1541,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>93</v>
@@ -1480,7 +1553,7 @@
         <v>36</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -1494,10 +1567,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>92</v>
@@ -1506,7 +1579,7 @@
         <v>36</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
@@ -1520,10 +1593,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>91</v>
@@ -1532,7 +1605,7 @@
         <v>28</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
@@ -1552,10 +1625,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>90</v>
@@ -1564,7 +1637,7 @@
         <v>27</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G17" t="s">
         <v>18</v>
@@ -1584,19 +1657,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G18" t="s">
         <v>18</v>
@@ -1616,10 +1689,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>89</v>
@@ -1628,7 +1701,7 @@
         <v>27</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G19" t="s">
         <v>18</v>
@@ -1648,10 +1721,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>88</v>
@@ -1660,7 +1733,7 @@
         <v>27</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
@@ -1680,10 +1753,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>87</v>
@@ -1692,7 +1765,7 @@
         <v>57</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G21" t="s">
         <v>21</v>
@@ -1712,10 +1785,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>86</v>
@@ -1724,7 +1797,7 @@
         <v>36</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G22" t="s">
         <v>21</v>
@@ -1738,10 +1811,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>85</v>
@@ -1750,7 +1823,7 @@
         <v>37</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G23" t="s">
         <v>40</v>
@@ -1770,10 +1843,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>84</v>
@@ -1782,7 +1855,7 @@
         <v>35</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G24" t="s">
         <v>40</v>
@@ -1802,10 +1875,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>83</v>
@@ -1814,7 +1887,7 @@
         <v>35</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G25" t="s">
         <v>40</v>
@@ -1834,10 +1907,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>82</v>
@@ -1846,7 +1919,7 @@
         <v>38</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G26" t="s">
         <v>40</v>
@@ -1866,10 +1939,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>81</v>
@@ -1878,7 +1951,7 @@
         <v>38</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G27" t="s">
         <v>40</v>
@@ -1898,10 +1971,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>80</v>
@@ -1910,7 +1983,7 @@
         <v>28</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G28" t="s">
         <v>40</v>
@@ -1930,10 +2003,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>79</v>
@@ -1942,7 +2015,7 @@
         <v>57</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G29" t="s">
         <v>40</v>
@@ -1962,10 +2035,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>78</v>
@@ -1974,7 +2047,7 @@
         <v>57</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G30" t="s">
         <v>40</v>
@@ -1991,10 +2064,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>77</v>
@@ -2003,7 +2076,7 @@
         <v>35</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G31" t="s">
         <v>40</v>
@@ -2023,10 +2096,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>76</v>
@@ -2035,7 +2108,7 @@
         <v>57</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -2055,10 +2128,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>75</v>
@@ -2067,7 +2140,7 @@
         <v>38</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G33" t="s">
         <v>40</v>
@@ -2087,10 +2160,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>74</v>
@@ -2099,7 +2172,7 @@
         <v>43</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G34" t="s">
         <v>39</v>
@@ -2119,10 +2192,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>73</v>
@@ -2131,7 +2204,7 @@
         <v>43</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
@@ -2151,10 +2224,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>72</v>
@@ -2163,7 +2236,7 @@
         <v>43</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G36" t="s">
         <v>39</v>
@@ -2183,10 +2256,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>71</v>
@@ -2195,7 +2268,7 @@
         <v>35</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -2215,10 +2288,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>70</v>
@@ -2227,7 +2300,7 @@
         <v>35</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G38" t="s">
         <v>41</v>
@@ -2247,10 +2320,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>69</v>
@@ -2259,7 +2332,7 @@
         <v>35</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G39" t="s">
         <v>41</v>
@@ -2279,10 +2352,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>68</v>
@@ -2291,7 +2364,7 @@
         <v>42</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G40" t="s">
         <v>41</v>
@@ -2311,10 +2384,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>67</v>
@@ -2323,7 +2396,7 @@
         <v>35</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G41" t="s">
         <v>41</v>
@@ -2343,10 +2416,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>66</v>
@@ -2355,7 +2428,7 @@
         <v>35</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G42" t="s">
         <v>41</v>
@@ -2375,10 +2448,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>65</v>
@@ -2387,7 +2460,7 @@
         <v>38</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G43" t="s">
         <v>41</v>
@@ -2407,19 +2480,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G44" t="s">
         <v>41</v>
@@ -2439,19 +2512,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H45" t="s">
         <v>50</v>
@@ -2462,10 +2535,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>64</v>
@@ -2474,7 +2547,7 @@
         <v>51</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H46" t="s">
         <v>52</v>
@@ -2485,10 +2558,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>63</v>
@@ -2497,7 +2570,7 @@
         <v>51</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H47" t="s">
         <v>53</v>

--- a/testdata/testData.xlsx
+++ b/testdata/testData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="133">
   <si>
     <t>PDL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -590,11 +590,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 
- "code":"0000"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>loanNo=100002018030401001
 action= com.hansy.forsaler.action.ForSalerAction
 method=queryLoanTypeByLoanNo</t>
@@ -624,6 +619,64 @@
   <si>
     <t xml:space="preserve"> 
  "code":"0001"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ "code":"0000"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "params": {
+        "loanNo": "100002017041703235"
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ "code":"0000"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code":"0000"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://221.236.20.217:8093/pcl/services/loanCenter/account/queryIsExitsDk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://221.236.20.217:8093/pcl/services/loanCenter/account/queryRevertible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "params": {
+        "loanNo": "100002017041703235",
+        "repayType":"rtype03",
+        "isShowDetail":true
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code": "0000"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "params": {
+        "loanNo": "",
+        "repayType":"rtype03",
+        "isShowDetail":true
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code": "1001"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -993,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1026,7 +1079,7 @@
         <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
@@ -1043,13 +1096,13 @@
         <v>117</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>110</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="135" x14ac:dyDescent="0.15">
@@ -1063,16 +1116,16 @@
         <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>110</v>
       </c>
       <c r="G3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
@@ -1089,24 +1142,65 @@
         <v>117</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>110</v>
       </c>
       <c r="G4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="5"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="108" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D46" s="7"/>
@@ -1118,9 +1212,12 @@
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="F3" r:id="rId2"/>
     <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1184,7 +1281,7 @@
         <v>112</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>36</v>
